--- a/data/proc/scrap_lists/2010_2014/09275.xlsx
+++ b/data/proc/scrap_lists/2010_2014/09275.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>id_matched</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>estado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id_matched</t>
         </is>
       </c>
     </row>
@@ -496,10 +496,14 @@
           <t>0927520110021</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0927520110021</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,10 +531,14 @@
           <t>0927520120083</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0927520120083</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,10 +566,14 @@
           <t>0927520120088</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0927520120088</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,10 +601,14 @@
           <t>0927520120089</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0927520120089</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -620,10 +636,14 @@
           <t>0927520120090</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0927520120090</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -651,10 +671,14 @@
           <t>0927520120092</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0927520120092</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -682,10 +706,14 @@
           <t>0927520120093</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0927520120093</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -713,10 +741,14 @@
           <t>0927520120094</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0927520120094</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -744,10 +776,14 @@
           <t>0927520120095</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0927520120095</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -775,10 +811,14 @@
           <t>0927520130020</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0927520130020</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
